--- a/medicine/Pharmacie/Charles_Derosne/Charles_Derosne.xlsx
+++ b/medicine/Pharmacie/Charles_Derosne/Charles_Derosne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Charles Derosne est un pharmacien, chimiste et industriel français né à Paris en 1780 et mort en 1846.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis-Charles Derosne est né le 23 janvier 1780[1] (ou 1779). Ses parents, qui se sont mariés en 1770, sont François Derosne (1743-1796), maître en pharmacie et associé de son cousin Louis-Claude Cadet de Gassicourt dans la pharmacie « Cadet-Derosne » du 115, rue Saint-Honoré, et Anne Godefroy. Louis-Charles est le second garçon de la famille, son ainé étant Jean-François né le 18 juillet 1774[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis-Charles Derosne est né le 23 janvier 1780 (ou 1779). Ses parents, qui se sont mariés en 1770, sont François Derosne (1743-1796), maître en pharmacie et associé de son cousin Louis-Claude Cadet de Gassicourt dans la pharmacie « Cadet-Derosne » du 115, rue Saint-Honoré, et Anne Godefroy. Louis-Charles est le second garçon de la famille, son ainé étant Jean-François né le 18 juillet 1774.
 Il fut l'un des premiers en France à fabriquer le sucre de betterave en 1811 peu après Benjamin Delessert. Il obtint le noir animal par la fabrication des os, reconnut la propriété décolorante du charbon et l'appliqua à la purification des sirops de sucre (1813). Il fonda un atelier en 1818 pour la fabrication d'appareils de distillation 7, rue des Batailles (à l'emplacement de l'actuelle avenue d'Iéna) à Chaillot. 
 Cet atelier relativement modeste fut transformé et étendu par association avec Jean-François Cail, en un établissement pour la construction d'appareils de sucrerie, de machines à vapeur de locomotives, de presses monétaires et de machines-outils, la Société Ch.Derosne et Cail. L'entreprise se développa avec création d'usines à Denain, Bruxelles, Valenciennes, Douai, Amsterdam et à Grenelle à proximité de l'usine de Chaillot sur l'autre rive de la Seine et devint une des plus importantes du monde avec plus de 1 200 ouvriers mécaniciens. 
-L'usine de Chaillot qui fut détruite par un incendie en 1865 et transférée dans celle du quai de Grenelle, à Paris 15e, était dans les années 1850 et 1860 la plus grande usine de la capitale[3].
+L'usine de Chaillot qui fut détruite par un incendie en 1865 et transférée dans celle du quai de Grenelle, à Paris 15e, était dans les années 1850 et 1860 la plus grande usine de la capitale.
 Charles Derosne a traduit de l'allemand le Traité de Franz Karl Achard sur le sucre de betterave.
 Adolphe Lebaudy épouse sa fille Laure Eugénie en 1836.
 </t>
